--- a/data/trans_orig/VUL_OTRO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en C.Valenciana</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_OTRO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>412</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,27 +770,27 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>667</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>183</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>915</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>143986</t>
+          <t>161151</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>142499</t>
+          <t>159859</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>144704</t>
+          <t>161804</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>142733</t>
+          <t>168192</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>141780</t>
+          <t>167183</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>143060</t>
+          <t>168676</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>99,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>286719</t>
+          <t>329342</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>285167</t>
+          <t>327963</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>287508</t>
+          <t>330160</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,72%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>470</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2244</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>737</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>236</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>80921</t>
+          <t>90001</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80308</t>
+          <t>88821</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>108064</t>
+          <t>122068</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>106709</t>
+          <t>121412</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>108760</t>
+          <t>122395</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>188985</t>
+          <t>212069</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>187445</t>
+          <t>210901</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189708</t>
+          <t>212570</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,89%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>594</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>180</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>967</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>379</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>2153</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -1534,27 +1534,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>162554</t>
+          <t>152987</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>162077</t>
+          <t>152052</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62792</t>
+          <t>61341</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62102</t>
+          <t>60228</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63082</t>
+          <t>61755</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>225346</t>
+          <t>214327</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>224618</t>
+          <t>213141</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>225763</t>
+          <t>214915</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,91%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>390</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>669</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>2598</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>3950</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>169350</t>
+          <t>169445</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>168527</t>
+          <t>168010</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>169833</t>
+          <t>170102</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>176254</t>
+          <t>181477</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>174410</t>
+          <t>179859</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>177087</t>
+          <t>182359</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>345604</t>
+          <t>350922</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>343803</t>
+          <t>349080</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>346607</t>
+          <t>352077</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>926</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>351</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>2117</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>846</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>883</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3955</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75208</t>
+          <t>72867</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73787</t>
+          <t>71676</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75944</t>
+          <t>73442</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>131622</t>
+          <t>124406</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>130071</t>
+          <t>123384</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>132265</t>
+          <t>124952</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,32%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>206831</t>
+          <t>197274</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>205027</t>
+          <t>195944</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>207823</t>
+          <t>198162</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,56%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>804</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>335</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>573</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -2563,27 +2563,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44764</t>
+          <t>54638</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>44093</t>
+          <t>52979</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>116676</t>
+          <t>121595</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>115130</t>
+          <t>120699</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>117423</t>
+          <t>122064</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>161440</t>
+          <t>176233</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>160020</t>
+          <t>174729</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>162292</t>
+          <t>176998</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,68%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5675</t>
+          <t>6652</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>7902</t>
+          <t>7085</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>12158</t>
+          <t>12166</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>676784</t>
+          <t>701089</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>674733</t>
+          <t>698649</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>678145</t>
+          <t>702588</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>738139</t>
+          <t>779079</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>735714</t>
+          <t>776926</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>739957</t>
+          <t>780672</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1414924</t>
+          <t>1480168</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1411867</t>
+          <t>1477146</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1417135</t>
+          <t>1482389</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>99,54%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6026,12 +6026,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10250</t>
+          <t>9950</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6041,12 +6041,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3594</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10167</t>
+          <t>10924</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -6096,12 +6096,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8441</t>
+          <t>8593</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17907</t>
+          <t>17851</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6139,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>195392</t>
+          <t>195692</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>202167</t>
+          <t>202266</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>200058</t>
+          <t>199301</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>206631</t>
+          <t>206460</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -6209,12 +6209,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>397960</t>
+          <t>398016</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>407426</t>
+          <t>407274</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>97,93%</t>
         </is>
       </c>
     </row>
@@ -6369,12 +6369,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2238</t>
+          <t>2267</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13076</t>
+          <t>14243</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -6384,12 +6384,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2564</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8507</t>
+          <t>8982</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>17465</t>
+          <t>18026</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6454,12 +6454,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -6482,12 +6482,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>111407</t>
+          <t>110240</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>122245</t>
+          <t>122216</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6497,12 +6497,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6517,12 +6517,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>160536</t>
+          <t>160061</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>166469</t>
+          <t>166479</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -6552,12 +6552,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>276061</t>
+          <t>275500</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>287164</t>
+          <t>287249</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6567,12 +6567,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>97,86%</t>
         </is>
       </c>
     </row>
@@ -6712,12 +6712,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8774</t>
+          <t>8783</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6727,12 +6727,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6747,12 +6747,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13378</t>
+          <t>13365</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6762,12 +6762,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6782,12 +6782,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6865</t>
+          <t>6719</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19341</t>
+          <t>18675</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6797,12 +6797,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -6825,12 +6825,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86975</t>
+          <t>86966</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93274</t>
+          <t>93444</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6860,12 +6860,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44026</t>
+          <t>44039</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54551</t>
+          <t>54531</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6875,12 +6875,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6895,12 +6895,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>133813</t>
+          <t>134479</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>146289</t>
+          <t>146435</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6910,12 +6910,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -7055,12 +7055,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7093</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21135</t>
+          <t>21866</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7070,12 +7070,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7090,12 +7090,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>5249</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18201</t>
+          <t>17646</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -7105,12 +7105,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -7125,12 +7125,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>14693</t>
+          <t>14742</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>33855</t>
+          <t>32796</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -7140,12 +7140,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>140733</t>
+          <t>140002</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>154775</t>
+          <t>154315</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -7183,12 +7183,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>140707</t>
+          <t>141262</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>153855</t>
+          <t>153659</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -7218,12 +7218,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -7238,12 +7238,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>286922</t>
+          <t>287981</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>306084</t>
+          <t>306035</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -7253,12 +7253,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,4%</t>
         </is>
       </c>
     </row>
@@ -7398,12 +7398,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>625</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -7433,12 +7433,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16478</t>
+          <t>16620</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -7448,12 +7448,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -7468,12 +7468,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>6628</t>
+          <t>6826</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18490</t>
+          <t>19403</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -7483,12 +7483,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -7511,12 +7511,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49181</t>
+          <t>49262</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53083</t>
+          <t>53084</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7526,12 +7526,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7546,12 +7546,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>77963</t>
+          <t>77821</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>89929</t>
+          <t>89859</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>129660</t>
+          <t>128747</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>141522</t>
+          <t>141324</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>95,39%</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13066</t>
+          <t>13464</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7776,12 +7776,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7573</t>
+          <t>8405</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7811,12 +7811,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>5425</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>16939</t>
+          <t>18234</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23481</t>
+          <t>23083</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33925</t>
+          <t>33814</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7889,12 +7889,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>55777</t>
+          <t>54945</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>62004</t>
+          <t>61985</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7924,12 +7924,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>82958</t>
+          <t>81663</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>94757</t>
+          <t>94472</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,57%</t>
         </is>
       </c>
     </row>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27214</t>
+          <t>27490</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>48591</t>
+          <t>49610</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -8119,12 +8119,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>32013</t>
+          <t>30904</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>52458</t>
+          <t>52269</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -8154,12 +8154,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>62686</t>
+          <t>64158</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>93902</t>
+          <t>94864</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -8197,12 +8197,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>629409</t>
+          <t>628390</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>650786</t>
+          <t>650510</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -8212,12 +8212,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -8232,12 +8232,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>700913</t>
+          <t>701102</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>721358</t>
+          <t>722467</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -8247,12 +8247,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -8267,12 +8267,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1337469</t>
+          <t>1336507</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1368685</t>
+          <t>1367213</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>95,52%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_OTRO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>9950</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>6430</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>10924</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>12360</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>8593</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>17851</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>585</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>161151</t>
+          <t>199713</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>159859</t>
+          <t>195692</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>161804</t>
+          <t>202266</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>597</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>168192</t>
+          <t>203795</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>167183</t>
+          <t>199301</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>168676</t>
+          <t>206460</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>329342</t>
+          <t>403507</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>327963</t>
+          <t>398016</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>330160</t>
+          <t>407274</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>97,93%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>210225</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>210225</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>210225</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>415867</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>415867</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>415867</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>5420</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2267</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>14243</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>4814</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>2564</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>8982</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>10234</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>18026</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90001</t>
+          <t>119063</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88821</t>
+          <t>110240</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>122216</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>122068</t>
+          <t>164229</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>121412</t>
+          <t>160061</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>122395</t>
+          <t>166479</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>709</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>212069</t>
+          <t>283292</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>210901</t>
+          <t>275500</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>212570</t>
+          <t>287249</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>97,86%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>124483</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>124483</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>124483</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>729</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>293526</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>293526</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>293526</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>4772</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>8783</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>6903</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>13365</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>11676</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>6719</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>18675</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>152987</t>
+          <t>90977</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>152052</t>
+          <t>86966</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>93444</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61341</t>
+          <t>50501</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>60228</t>
+          <t>44039</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61755</t>
+          <t>54531</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>323</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>214327</t>
+          <t>141478</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>213141</t>
+          <t>134479</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>214915</t>
+          <t>146435</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>95749</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>95749</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>95749</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>153154</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>153154</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>153154</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>12375</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>21866</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>9889</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>5249</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3169</t>
+          <t>17646</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2598</t>
+          <t>22263</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>14742</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>32796</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>169445</t>
+          <t>149493</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>168010</t>
+          <t>140002</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>170102</t>
+          <t>154315</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>181477</t>
+          <t>149019</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>179859</t>
+          <t>141262</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>182359</t>
+          <t>153659</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>627</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>350922</t>
+          <t>298514</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>349080</t>
+          <t>287981</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>352077</t>
+          <t>306035</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>95,4%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>161868</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>161868</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>161868</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>666</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>320777</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>320777</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>320777</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>625</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2117</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>9059</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>16620</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>10872</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>6826</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>19403</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72867</t>
+          <t>51895</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>71676</t>
+          <t>49262</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73442</t>
+          <t>53084</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>124406</t>
+          <t>85382</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>123384</t>
+          <t>77821</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>124952</t>
+          <t>89859</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>268</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>197274</t>
+          <t>137278</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>195944</t>
+          <t>128747</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>198162</t>
+          <t>141324</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>95,39%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>13464</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>8405</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>9849</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>5425</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>18234</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54638</t>
+          <t>30113</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52979</t>
+          <t>23083</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>33814</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>121595</t>
+          <t>59935</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>120699</t>
+          <t>54945</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>122064</t>
+          <t>61985</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>230</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>176233</t>
+          <t>90048</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>174729</t>
+          <t>81663</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>176998</t>
+          <t>94472</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>94,57%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>36745</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>27490</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6652</t>
+          <t>49610</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>40509</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>30904</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>52269</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>148</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>9144</t>
+          <t>77254</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>64158</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>12166</t>
+          <t>94864</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3957</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>701089</t>
+          <t>641255</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>698649</t>
+          <t>628390</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>702588</t>
+          <t>650510</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>779079</t>
+          <t>712862</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>776926</t>
+          <t>701102</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>780672</t>
+          <t>722467</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8321</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1480168</t>
+          <t>1354117</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1477146</t>
+          <t>1336507</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1482389</t>
+          <t>1367213</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>95,52%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>678000</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>678000</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>678000</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>753371</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>753371</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>753371</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>1431371</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>1431371</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>1431371</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>412</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9950</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>667</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>183</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10924</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>12360</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8593</t>
+          <t>915</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17851</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>845</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>199713</t>
+          <t>161151</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>195692</t>
+          <t>159859</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>202266</t>
+          <t>161804</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>876</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>203795</t>
+          <t>168192</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>199301</t>
+          <t>167183</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>206460</t>
+          <t>168676</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>99,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>403507</t>
+          <t>329342</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>398016</t>
+          <t>327963</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>407274</t>
+          <t>330160</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>99,72%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210225</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>210225</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210225</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>415867</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>415867</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>415867</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5420</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2267</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14243</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>470</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2564</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8982</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10234</t>
+          <t>737</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>236</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>18026</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>119063</t>
+          <t>90001</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>110240</t>
+          <t>88821</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>122216</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>668</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>164229</t>
+          <t>122068</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>160061</t>
+          <t>121412</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>166479</t>
+          <t>122395</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>283292</t>
+          <t>212069</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>275500</t>
+          <t>210901</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>287249</t>
+          <t>212570</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>99,89%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124483</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124483</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124483</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>672</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293526</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293526</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293526</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8783</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6903</t>
+          <t>594</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>180</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13365</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11676</t>
+          <t>967</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6719</t>
+          <t>379</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18675</t>
+          <t>2153</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>916</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90977</t>
+          <t>152987</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86966</t>
+          <t>152052</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93444</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50501</t>
+          <t>61341</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44039</t>
+          <t>60228</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54531</t>
+          <t>61755</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>76,72%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>141478</t>
+          <t>214327</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>134479</t>
+          <t>213141</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>146435</t>
+          <t>214915</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>918</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95749</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95749</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95749</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>153154</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>153154</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153154</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12375</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7553</t>
+          <t>390</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21866</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9889</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5249</t>
+          <t>669</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17646</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>22263</t>
+          <t>2598</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>14742</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32796</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>998</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>149493</t>
+          <t>169445</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>140002</t>
+          <t>168010</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>154315</t>
+          <t>170102</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>149019</t>
+          <t>181477</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>141262</t>
+          <t>179859</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>153659</t>
+          <t>182359</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>298514</t>
+          <t>350922</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>287981</t>
+          <t>349080</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>306035</t>
+          <t>352077</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>161868</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>161868</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>161868</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>320777</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>320777</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>320777</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>926</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>351</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4447</t>
+          <t>2117</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9059</t>
+          <t>846</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>10872</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>6826</t>
+          <t>883</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19403</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51895</t>
+          <t>72867</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49262</t>
+          <t>71676</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53084</t>
+          <t>73442</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>738</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85382</t>
+          <t>124406</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>77821</t>
+          <t>123384</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>89859</t>
+          <t>124952</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>99,32%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>137278</t>
+          <t>197274</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>128747</t>
+          <t>195944</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>141324</t>
+          <t>198162</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>99,56%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>744</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6434</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13464</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>804</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>335</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8405</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>9849</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5425</t>
+          <t>573</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>18234</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>30113</t>
+          <t>54638</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23083</t>
+          <t>52979</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33814</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>684</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>59935</t>
+          <t>121595</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>54945</t>
+          <t>120699</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>61985</t>
+          <t>122064</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>948</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>90048</t>
+          <t>176233</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>81663</t>
+          <t>174729</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>94472</t>
+          <t>176998</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>99,68%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>957</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36745</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27490</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>49610</t>
+          <t>6652</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40509</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>30904</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>52269</t>
+          <t>7085</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>77254</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>64158</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>94864</t>
+          <t>12166</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>3957</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>641255</t>
+          <t>701089</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>628390</t>
+          <t>698649</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>650510</t>
+          <t>702588</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>712862</t>
+          <t>779079</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>701102</t>
+          <t>776926</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>722467</t>
+          <t>780672</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>8321</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1354117</t>
+          <t>1480168</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1336507</t>
+          <t>1477146</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1367213</t>
+          <t>1482389</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>99,54%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>678000</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>678000</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>678000</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>753371</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>753371</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>753371</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1431371</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1431371</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1431371</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
